--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DB921A-6C40-46C4-9439-7E9DCFCEDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6958FF9-CA65-4139-BE67-7EC9BD5ED928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,22 @@
   </si>
   <si>
     <t>Content\Items\Placeable\FlowingStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowingStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowingSand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动沙块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Placeable\FlowingSand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,11 +408,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6958FF9-CA65-4139-BE67-7EC9BD5ED928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767747F3-3E18-4C14-BA46-5BA94EF5DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
+    <sheet name="合成表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,15 +52,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FlowingSand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流动沙块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Content\Items\Placeable\FlowingSand</t>
+    <t>Content\Items\Placeable\FlowingSandBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowingSandBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶绿提炼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,28 +108,104 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,46 +488,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767747F3-3E18-4C14-BA46-5BA94EF5DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2750E2-03FE-4771-AB59-B033F7B5C37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>沙块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidGoldOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Tiles\LiquidGoldOre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,6 +544,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -542,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2750E2-03FE-4771-AB59-B033F7B5C37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978EF1D-D58D-4320-9EBF-8C340B55E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,17 @@
   </si>
   <si>
     <t>Content\Tiles\LiquidGoldOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EtchingLiquidBlade</t>
+  </si>
+  <si>
+    <t>蚀刻液刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\EtchingLiquidBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,6 +564,17 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978EF1D-D58D-4320-9EBF-8C340B55E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927610C9-3CA5-48BB-8749-2FBD3279A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Content\Items\Weapons\EtchingLiquidBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcidEtchingBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Buffs\AcidEtchingBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,6 +587,17 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927610C9-3CA5-48BB-8749-2FBD3279A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06757703-3DE1-4E58-B3AE-49C7D1ACC4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,34 @@
   </si>
   <si>
     <t>Content\Buffs\AcidEtchingBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidGoldBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Tiles\LiquidGoldBarTile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀刻液刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,6 +628,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,6 +693,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06757703-3DE1-4E58-B3AE-49C7D1ACC4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4066C2B-264B-4E22-84CE-DE90415D224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,17 @@
   </si>
   <si>
     <t>蚀刻液刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动石相</t>
+  </si>
+  <si>
+    <t>FlowingStongPhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Materials\FlowingStonePhase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,6 +650,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -718,5 +740,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4066C2B-264B-4E22-84CE-DE90415D224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A23DAC-8F12-4317-B7D8-0A296BE52D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>液金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熔炉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +155,34 @@
   </si>
   <si>
     <t>Content\Items\Materials\FlowingStonePhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金矿、晶状体、小雪怪皮毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -652,13 +676,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -669,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,7 +741,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -731,10 +755,65 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A23DAC-8F12-4317-B7D8-0A296BE52D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF1EF4-3787-4CFE-8CF1-3017D99460A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,29 @@
   </si>
   <si>
     <t>液金矿、晶状体、小雪怪皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliminationPickaxe</t>
+  </si>
+  <si>
+    <t>删除镐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Tools\EliminationPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金锭、流动石相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除镐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,6 +708,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,6 +850,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF1EF4-3787-4CFE-8CF1-3017D99460A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6A833-658B-4DBE-A9DE-FE60066F4DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>删除镐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正常斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbnormalAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Tools\AbnormalAxe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,6 +731,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,9 +750,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -861,6 +884,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6A833-658B-4DBE-A9DE-FE60066F4DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D4B8A0-EB9A-4FFF-B49E-542DED876FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>Content\Items\Tools\AbnormalAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不真实锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FakeHammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Tools\FakeHammer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,6 +754,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,13 +909,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D4B8A0-EB9A-4FFF-B49E-542DED876FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C959E6-63E9-428A-9EF5-58F7782A7D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,22 @@
   </si>
   <si>
     <t>Content\Items\Tools\FakeHammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臆想抓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImaginationGripperFishingRod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Tools\ImaginationGripperFishingRod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,6 +781,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,9 +800,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -929,6 +956,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C959E6-63E9-428A-9EF5-58F7782A7D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26380EF-1B6B-4187-8DA0-B5A7D67F1BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,17 @@
   </si>
   <si>
     <t>Content\Items\Tools\ImaginationGripperFishingRod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhantomBow</t>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\PhantomBow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,6 +803,17 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,6 +989,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26380EF-1B6B-4187-8DA0-B5A7D67F1BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093A741-DBC2-4570-9503-2E17F10CB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>Content\Items\Weapons\PhantomBow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TearingMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴泪面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\TearingMask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,6 +824,17 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093A741-DBC2-4570-9503-2E17F10CB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB4E08-41E7-4C91-AFF9-5317AF5719A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,38 @@
   </si>
   <si>
     <t>Content\Items\Weapons\TearingMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金锭、黄玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔光护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液金锭、流动石相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GypsumHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\GypsumHead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,6 +869,17 @@
         <v>61</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,6 +1066,28 @@
         <v>56</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB4E08-41E7-4C91-AFF9-5317AF5719A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38DD26-4A89-4B56-86AD-4842AB66D719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,17 @@
   </si>
   <si>
     <t>Content\Items\Weapons\GypsumHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WildHalberd</t>
+  </si>
+  <si>
+    <t>荒戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\WildHalberd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,6 +891,17 @@
         <v>69</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,6 +1110,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38DD26-4A89-4B56-86AD-4842AB66D719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4CC5C-E55A-4692-B5F8-2C5DF6F40EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>Content\Items\Weapons\WildHalberd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerminalBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\TerminalBall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,6 +914,17 @@
         <v>72</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4CC5C-E55A-4692-B5F8-2C5DF6F40EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061BD29-0151-4A60-AF59-FE531C750B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>Content\Items\Weapons\TerminalBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImaginationGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臆想枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Weapons\ImaginationGun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,6 +935,17 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061BD29-0151-4A60-AF59-FE531C750B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60673C7-15B7-4569-BC48-0984DADDD076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>Content\Items\Weapons\ImaginationGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackIceBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑冰雪块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Placeable\BlackIceBlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,6 +958,17 @@
       </c>
       <c r="C18" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60673C7-15B7-4569-BC48-0984DADDD076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90518367-AE9C-4AEF-96C7-E37A8325BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,17 @@
   </si>
   <si>
     <t>Content\Items\Placeable\BlackIceBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Accessories\ComposureRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComposureRing</t>
+  </si>
+  <si>
+    <t>镇定戒指</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,6 +980,17 @@
       </c>
       <c r="C19" s="3" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90518367-AE9C-4AEF-96C7-E37A8325BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87A267-C72B-4BB3-B018-654F9E35F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,41 @@
   </si>
   <si>
     <t>镇定戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Armor\Silence\SilenceGreaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilenceGreaves</t>
+  </si>
+  <si>
+    <t>缄默头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缄默鳞甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilenceHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缄默护胫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Armor\Silence\SilenceHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Armor\Silence\SilenceScalemail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilenceScalemail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,6 +1026,39 @@
       </c>
       <c r="C20" s="3" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbh\Documents\My Games\Terraria\tModLoader\ModSources\WBHMODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87A267-C72B-4BB3-B018-654F9E35F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111DBD3F-2781-42BE-B9FB-3D4101229E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,40 @@
   </si>
   <si>
     <t>SilenceScalemail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content\Items\Materials\Neuro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缄默头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缄默鳞甲</t>
+  </si>
+  <si>
+    <t>缄默护胫</t>
+  </si>
+  <si>
+    <t>HalfDecline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半衰(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UseContent\Buffs\HalfDeclineDebuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1095,28 @@
         <v>92</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF1772-0309-46F6-8E72-F8ED31812A76}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1336,39 @@
         <v>71</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
